--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Cyient Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Yearly Results of Cyient(in Rs. Cr.)</t>
   </si>
@@ -161,6 +161,93 @@
   </si>
   <si>
     <t>Mar '23</t>
+  </si>
+  <si>
+    <t>124.54</t>
+  </si>
+  <si>
+    <t>4.84</t>
+  </si>
+  <si>
+    <t>7.07</t>
+  </si>
+  <si>
+    <t>9.68</t>
+  </si>
+  <si>
+    <t>21.80</t>
+  </si>
+  <si>
+    <t>566.57</t>
+  </si>
+  <si>
+    <t>33.79</t>
+  </si>
+  <si>
+    <t>57.52</t>
+  </si>
+  <si>
+    <t>97.44</t>
+  </si>
+  <si>
+    <t>122.31</t>
+  </si>
+  <si>
+    <t>1,224.49</t>
+  </si>
+  <si>
+    <t>153.80</t>
+  </si>
+  <si>
+    <t>213.69</t>
+  </si>
+  <si>
+    <t>344.62</t>
+  </si>
+  <si>
+    <t>435.18</t>
+  </si>
+  <si>
+    <t>1,614.90</t>
+  </si>
+  <si>
+    <t>561.80</t>
+  </si>
+  <si>
+    <t>647.67</t>
+  </si>
+  <si>
+    <t>863.76</t>
+  </si>
+  <si>
+    <t>1,051.56</t>
+  </si>
+  <si>
+    <t>2,461.40</t>
+  </si>
+  <si>
+    <t>1,294.01</t>
+  </si>
+  <si>
+    <t>1,245.56</t>
+  </si>
+  <si>
+    <t>1,292.00</t>
+  </si>
+  <si>
+    <t>1,439.70</t>
+  </si>
+  <si>
+    <t>1,523.10</t>
+  </si>
+  <si>
+    <t>1,379.90</t>
+  </si>
+  <si>
+    <t>1,750.50</t>
+  </si>
+  <si>
+    <t>2,227.90</t>
   </si>
 </sst>
 </file>
@@ -590,8 +677,8 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2">
-        <v>124.54</v>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
       <c r="C2">
         <v>124.54</v>
@@ -652,14 +739,14 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>4.84</v>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
       <c r="C3">
-        <v>909.1100000000001</v>
+        <v>909.11</v>
       </c>
       <c r="D3">
-        <v>470.1716666666667</v>
+        <v>470.17</v>
       </c>
       <c r="E3">
         <v>0.27</v>
@@ -668,28 +755,28 @@
         <v>2.82</v>
       </c>
       <c r="G3">
-        <v>179.6816</v>
+        <v>179.68</v>
       </c>
       <c r="H3">
         <v>0.18</v>
       </c>
       <c r="I3">
-        <v>244.1092</v>
+        <v>244.11</v>
       </c>
       <c r="J3">
         <v>0.25</v>
       </c>
       <c r="K3">
-        <v>240.3592</v>
+        <v>240.36</v>
       </c>
       <c r="L3">
-        <v>238.1076</v>
+        <v>238.11</v>
       </c>
       <c r="M3">
         <v>0.05</v>
       </c>
       <c r="N3">
-        <v>188.6744</v>
+        <v>188.67</v>
       </c>
       <c r="O3">
         <v>1.63</v>
@@ -704,24 +791,24 @@
         <v>152.8</v>
       </c>
       <c r="S3">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T3">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4">
-        <v>7.07</v>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>909.1100000000001</v>
+        <v>909.11</v>
       </c>
       <c r="D4">
-        <v>470.1716666666667</v>
+        <v>470.17</v>
       </c>
       <c r="E4">
         <v>0.38</v>
@@ -730,28 +817,28 @@
         <v>4.25</v>
       </c>
       <c r="G4">
-        <v>179.6816</v>
+        <v>179.68</v>
       </c>
       <c r="H4">
         <v>0.23</v>
       </c>
       <c r="I4">
-        <v>244.1092</v>
+        <v>244.11</v>
       </c>
       <c r="J4">
         <v>0.22</v>
       </c>
       <c r="K4">
-        <v>240.3592</v>
+        <v>240.36</v>
       </c>
       <c r="L4">
-        <v>238.1076</v>
+        <v>238.11</v>
       </c>
       <c r="M4">
         <v>0.29</v>
       </c>
       <c r="N4">
-        <v>188.6744</v>
+        <v>188.67</v>
       </c>
       <c r="O4">
         <v>2.16</v>
@@ -766,24 +853,24 @@
         <v>152.8</v>
       </c>
       <c r="S4">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T4">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5">
-        <v>9.68</v>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
       <c r="C5">
-        <v>909.1100000000001</v>
+        <v>909.11</v>
       </c>
       <c r="D5">
-        <v>470.1716666666667</v>
+        <v>470.17</v>
       </c>
       <c r="E5">
         <v>0.57</v>
@@ -792,28 +879,28 @@
         <v>6.6</v>
       </c>
       <c r="G5">
-        <v>179.6816</v>
+        <v>179.68</v>
       </c>
       <c r="H5">
         <v>0.38</v>
       </c>
       <c r="I5">
-        <v>244.1092</v>
+        <v>244.11</v>
       </c>
       <c r="J5">
         <v>0.29</v>
       </c>
       <c r="K5">
-        <v>240.3592</v>
+        <v>240.36</v>
       </c>
       <c r="L5">
-        <v>238.1076</v>
+        <v>238.11</v>
       </c>
       <c r="M5">
         <v>0.06</v>
       </c>
       <c r="N5">
-        <v>188.6744</v>
+        <v>188.67</v>
       </c>
       <c r="O5">
         <v>2.53</v>
@@ -828,24 +915,24 @@
         <v>152.8</v>
       </c>
       <c r="S5">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T5">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6">
-        <v>21.8</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6">
-        <v>909.1100000000001</v>
+        <v>909.11</v>
       </c>
       <c r="D6">
-        <v>470.1716666666667</v>
+        <v>470.17</v>
       </c>
       <c r="E6">
         <v>1.77</v>
@@ -854,28 +941,28 @@
         <v>13.41</v>
       </c>
       <c r="G6">
-        <v>179.6816</v>
+        <v>179.68</v>
       </c>
       <c r="H6">
         <v>0.54</v>
       </c>
       <c r="I6">
-        <v>244.1092</v>
+        <v>244.11</v>
       </c>
       <c r="J6">
         <v>0.57</v>
       </c>
       <c r="K6">
-        <v>240.3592</v>
+        <v>240.36</v>
       </c>
       <c r="L6">
-        <v>238.1076</v>
+        <v>238.11</v>
       </c>
       <c r="M6">
         <v>0.11</v>
       </c>
       <c r="N6">
-        <v>188.6744</v>
+        <v>188.67</v>
       </c>
       <c r="O6">
         <v>6.48</v>
@@ -890,18 +977,18 @@
         <v>152.8</v>
       </c>
       <c r="S6">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T6">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
-        <v>566.5700000000001</v>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
       <c r="C7">
         <v>566.5700000000001</v>
@@ -962,14 +1049,14 @@
       <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="B8">
-        <v>33.79</v>
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
       <c r="C8">
         <v>33.79</v>
       </c>
       <c r="D8">
-        <v>470.1716666666667</v>
+        <v>470.17</v>
       </c>
       <c r="E8">
         <v>2.25</v>
@@ -1014,18 +1101,18 @@
         <v>20</v>
       </c>
       <c r="S8">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T8">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B9">
-        <v>57.52</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>57.52</v>
@@ -1086,8 +1173,8 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10">
-        <v>97.44</v>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10">
         <v>97.44</v>
@@ -1148,8 +1235,8 @@
       <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="B11">
-        <v>122.31</v>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
       <c r="C11">
         <v>122.31</v>
@@ -1210,8 +1297,8 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12">
-        <v>250.9458823529412</v>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="C12">
         <v>1224.49</v>
@@ -1272,8 +1359,8 @@
       <c r="A13" t="s">
         <v>31</v>
       </c>
-      <c r="B13">
-        <v>153.8</v>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
       <c r="C13">
         <v>153.8</v>
@@ -1334,8 +1421,8 @@
       <c r="A14" t="s">
         <v>32</v>
       </c>
-      <c r="B14">
-        <v>213.69</v>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
       <c r="C14">
         <v>213.69</v>
@@ -1396,8 +1483,8 @@
       <c r="A15" t="s">
         <v>33</v>
       </c>
-      <c r="B15">
-        <v>344.62</v>
+      <c r="B15" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <v>344.62</v>
@@ -1458,8 +1545,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16">
-        <v>435.18</v>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
       <c r="C16">
         <v>435.18</v>
@@ -1520,8 +1607,8 @@
       <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B17">
-        <v>250.9458823529412</v>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17">
         <v>1614.9</v>
@@ -1572,18 +1659,18 @@
         <v>300</v>
       </c>
       <c r="S17">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T17">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18">
-        <v>561.8</v>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18">
         <v>561.8</v>
@@ -1644,8 +1731,8 @@
       <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B19">
-        <v>647.67</v>
+      <c r="B19" t="s">
+        <v>66</v>
       </c>
       <c r="C19">
         <v>647.67</v>
@@ -1706,8 +1793,8 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20">
-        <v>863.76</v>
+      <c r="B20" t="s">
+        <v>67</v>
       </c>
       <c r="C20">
         <v>863.8</v>
@@ -1768,8 +1855,8 @@
       <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21">
-        <v>250.9458823529412</v>
+      <c r="B21" t="s">
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1051.56</v>
@@ -1830,8 +1917,8 @@
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22">
-        <v>250.9458823529412</v>
+      <c r="B22" t="s">
+        <v>69</v>
       </c>
       <c r="C22">
         <v>2461.4</v>
@@ -1882,18 +1969,18 @@
         <v>600</v>
       </c>
       <c r="S22">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T22">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>41</v>
       </c>
-      <c r="B23">
-        <v>250.9458823529412</v>
+      <c r="B23" t="s">
+        <v>70</v>
       </c>
       <c r="C23">
         <v>1294.01</v>
@@ -1954,8 +2041,8 @@
       <c r="A24" t="s">
         <v>42</v>
       </c>
-      <c r="B24">
-        <v>250.9458823529412</v>
+      <c r="B24" t="s">
+        <v>71</v>
       </c>
       <c r="C24">
         <v>1245.56</v>
@@ -2006,18 +2093,18 @@
         <v>140</v>
       </c>
       <c r="S24">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T24">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>43</v>
       </c>
-      <c r="B25">
-        <v>250.9458823529412</v>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
         <v>1292</v>
@@ -2068,18 +2155,18 @@
         <v>210</v>
       </c>
       <c r="S25">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T25">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
-        <v>250.9458823529412</v>
+      <c r="B26" t="s">
+        <v>73</v>
       </c>
       <c r="C26">
         <v>1439.7</v>
@@ -2130,18 +2217,18 @@
         <v>260</v>
       </c>
       <c r="S26">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T26">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>45</v>
       </c>
-      <c r="B27">
-        <v>250.9458823529412</v>
+      <c r="B27" t="s">
+        <v>74</v>
       </c>
       <c r="C27">
         <v>1523.1</v>
@@ -2192,18 +2279,18 @@
         <v>300</v>
       </c>
       <c r="S27">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T27">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>46</v>
       </c>
-      <c r="B28">
-        <v>250.9458823529412</v>
+      <c r="B28" t="s">
+        <v>75</v>
       </c>
       <c r="C28">
         <v>1379.9</v>
@@ -2254,18 +2341,18 @@
         <v>340</v>
       </c>
       <c r="S28">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T28">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>47</v>
       </c>
-      <c r="B29">
-        <v>250.9458823529412</v>
+      <c r="B29" t="s">
+        <v>76</v>
       </c>
       <c r="C29">
         <v>1750.5</v>
@@ -2316,18 +2403,18 @@
         <v>480</v>
       </c>
       <c r="S29">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T29">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>48</v>
       </c>
-      <c r="B30">
-        <v>250.9458823529412</v>
+      <c r="B30" t="s">
+        <v>77</v>
       </c>
       <c r="C30">
         <v>2227.9</v>
@@ -2378,10 +2465,10 @@
         <v>520</v>
       </c>
       <c r="S30">
-        <v>3.742666666666667</v>
+        <v>3.74</v>
       </c>
       <c r="T30">
-        <v>73.04666666666665</v>
+        <v>73.05</v>
       </c>
     </row>
   </sheetData>
